--- a/comparison_results/PSO_PID_With_Disturbance_Test_5.xlsx
+++ b/comparison_results/PSO_PID_With_Disturbance_Test_5.xlsx
@@ -545,64 +545,64 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06029829318441642</v>
+        <v>0.1022610918876161</v>
       </c>
       <c r="C2" t="n">
-        <v>2.402402402402402</v>
+        <v>4.814814814814815</v>
       </c>
       <c r="D2" t="n">
-        <v>3.99626774034807</v>
+        <v>0.6551064948821628</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5605605605605606</v>
+        <v>0.840840840840841</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00650499040487653</v>
+        <v>0.005436349515926493</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01756447066915318</v>
+        <v>0.02217156018719382</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2768215221104873</v>
+        <v>0.3014368826954888</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08534248907084702</v>
+        <v>0.09378970893917261</v>
       </c>
       <c r="J2" t="n">
-        <v>14.32120454678488</v>
+        <v>10.54121297345378</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9767515750656652</v>
+        <v>0.9750397578953682</v>
       </c>
       <c r="L2" t="n">
-        <v>4.981189101434967</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
+        <v>0.4353048862982129</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.1</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.001</v>
-      </c>
       <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9.164352826674266</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.009210782276159573</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
         <v>0.1</v>
       </c>
-      <c r="P2" t="n">
-        <v>8.767726371500551</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.07610566998268704</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.4052092703466167</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.6220441581384796</v>
-      </c>
       <c r="T2" t="n">
-        <v>0.002621794696163085</v>
+        <v>0.09081713161816017</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1</v>
+        <v>1.086770347271194</v>
       </c>
     </row>
     <row r="3">
@@ -610,64 +610,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.143802676323415</v>
+        <v>0.1405755473872941</v>
       </c>
       <c r="C3" t="n">
-        <v>6.786786786786787</v>
+        <v>6.706706706706707</v>
       </c>
       <c r="D3" t="n">
-        <v>1.649635071513678</v>
+        <v>0.6171817409175384</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.920920920920921</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004957825569209519</v>
+        <v>0.003688902674586068</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02324240519980907</v>
+        <v>0.02787513384994931</v>
       </c>
       <c r="H3" t="n">
-        <v>0.308547734230202</v>
+        <v>0.3359865978816787</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09320257974612052</v>
+        <v>0.09800112794559925</v>
       </c>
       <c r="J3" t="n">
-        <v>10.65146975130679</v>
+        <v>9.348250547607707</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9753170857780363</v>
+        <v>0.9780618841926059</v>
       </c>
       <c r="L3" t="n">
-        <v>4.989109212973927</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>7.616395545589749</v>
+        <v>5.610678750741731</v>
       </c>
       <c r="N3" t="n">
+        <v>0.09026843205545006</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.972125538878114</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6.165214776476433</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.004169021335681962</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.275740982884964</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.5748749028046812</v>
+      </c>
+      <c r="T3" t="n">
         <v>0.001</v>
       </c>
-      <c r="O3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.4936224943054194</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5.208739463574131</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.0119716626035821</v>
-      </c>
       <c r="U3" t="n">
-        <v>0.9348547387030834</v>
+        <v>0.3651436563567417</v>
       </c>
     </row>
     <row r="4">
@@ -675,64 +675,64 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1471503292924772</v>
+        <v>0.1451342572149131</v>
       </c>
       <c r="C4" t="n">
-        <v>6.966966966966967</v>
+        <v>6.846846846846847</v>
       </c>
       <c r="D4" t="n">
-        <v>1.350848511913982</v>
+        <v>1.83234682950506</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8108108108108107</v>
+        <v>0.6506506506506506</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006343362812420626</v>
+        <v>0.005492511600789918</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02637477720921277</v>
+        <v>0.02053880718078722</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3300696177369739</v>
+        <v>0.2939595850587538</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09543496591041953</v>
+        <v>0.08877753207417588</v>
       </c>
       <c r="J4" t="n">
-        <v>9.951166641243422</v>
+        <v>12.36772333568636</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9760116663082643</v>
+        <v>0.9742837859976661</v>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>2.844723419632394</v>
+        <v>6.214726783610323</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03188402092486872</v>
+        <v>0.06109220974051314</v>
       </c>
       <c r="O4" t="n">
-        <v>1.910156552407255</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.845751717538201</v>
+        <v>3.503768871596514</v>
       </c>
       <c r="Q4" t="n">
+        <v>0.008755891290405016</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.932855622262372</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T4" t="n">
         <v>0.001</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.99983554623027</v>
-      </c>
-      <c r="S4" t="n">
-        <v>9.996399841537198</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.008914129005459232</v>
-      </c>
       <c r="U4" t="n">
-        <v>0.3228869016048627</v>
+        <v>1.857895461583711</v>
       </c>
     </row>
     <row r="5">
@@ -740,64 +740,64 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1397197750523436</v>
+        <v>0.1325812004932699</v>
       </c>
       <c r="C5" t="n">
-        <v>6.496496496496497</v>
+        <v>5.875875875875876</v>
       </c>
       <c r="D5" t="n">
-        <v>2.279107524855806</v>
+        <v>5.243578734869891</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7007007007007007</v>
+        <v>0.5205205205205206</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004838636533060521</v>
+        <v>0.005048198550858789</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02616323375509298</v>
+        <v>0.0199024262084454</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3383100446780982</v>
+        <v>0.2971407299174618</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09333354508929531</v>
+        <v>0.08432708821802758</v>
       </c>
       <c r="J5" t="n">
-        <v>10.38310476280111</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9775958776946724</v>
+        <v>0.9729767942200027</v>
       </c>
       <c r="L5" t="n">
-        <v>4.444237046293154</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>9.05369554584537</v>
+        <v>6.022886853626516</v>
       </c>
       <c r="N5" t="n">
+        <v>0.01460560317703719</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.146330052550701</v>
+      </c>
+      <c r="P5" t="n">
         <v>0.1</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.020382759145089</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.185203628106195</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0.08928634061115295</v>
+        <v>0.001</v>
       </c>
       <c r="R5" t="n">
-        <v>1.202676241917306</v>
+        <v>0.5780846338508341</v>
       </c>
       <c r="S5" t="n">
-        <v>7.312605519754576</v>
+        <v>4.701198553004715</v>
       </c>
       <c r="T5" t="n">
-        <v>0.09958565476374813</v>
+        <v>0.07461923978637323</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2366130397293078</v>
+        <v>1.405255977202139</v>
       </c>
     </row>
     <row r="6">
@@ -805,64 +805,64 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1456283529942342</v>
+        <v>0.1461051218734196</v>
       </c>
       <c r="C6" t="n">
-        <v>6.836836836836837</v>
+        <v>6.936936936936937</v>
       </c>
       <c r="D6" t="n">
-        <v>2.000530437717352</v>
+        <v>1.275411781325686</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6706706706706707</v>
+        <v>0.7807807807807807</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005542804542602117</v>
+        <v>0.005540578030512551</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0237147849324869</v>
+        <v>0.02408034292966966</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3165511114978515</v>
+        <v>0.3114051676300958</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09034888454020015</v>
+        <v>0.09368306247222348</v>
       </c>
       <c r="J6" t="n">
-        <v>11.8382588682164</v>
+        <v>10.8601444879455</v>
       </c>
       <c r="K6" t="n">
-        <v>0.974374515995952</v>
+        <v>0.9756561582671024</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>9.366741851274018</v>
+        <v>9.224644024454367</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01319884983458808</v>
+        <v>0.06901943001563819</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5858065719404395</v>
+        <v>0.9186292996223325</v>
       </c>
       <c r="P6" t="n">
-        <v>2.238472874043768</v>
+        <v>10</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001774368869425838</v>
+        <v>0.08328622124719638</v>
       </c>
       <c r="R6" t="n">
-        <v>1.708301188949353</v>
+        <v>0.6337542095980015</v>
       </c>
       <c r="S6" t="n">
-        <v>5.5924765022814</v>
+        <v>1.827478894020572</v>
       </c>
       <c r="T6" t="n">
-        <v>0.006512860771584046</v>
+        <v>0.06378180850718969</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>0.3267474639839106</v>
       </c>
     </row>
     <row r="7">
@@ -870,64 +870,64 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1061278427537803</v>
+        <v>0.1467200967044485</v>
       </c>
       <c r="C7" t="n">
-        <v>4.904904904904905</v>
+        <v>6.866866866866867</v>
       </c>
       <c r="D7" t="n">
-        <v>1.968304893295025</v>
+        <v>2.520862453802009</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5805805805805806</v>
+        <v>0.5705705705705706</v>
       </c>
       <c r="F7" t="n">
-        <v>0.005993558403110451</v>
+        <v>0.006557700913799455</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01579533257970651</v>
+        <v>0.01808186940740072</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2665575249075914</v>
+        <v>0.2821695495375183</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0849082923989203</v>
+        <v>0.08538618656156638</v>
       </c>
       <c r="J7" t="n">
-        <v>14.20320706794848</v>
+        <v>13.97807821580753</v>
       </c>
       <c r="K7" t="n">
-        <v>0.973605994458096</v>
+        <v>0.9721700902334099</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
       </c>
       <c r="M7" t="n">
+        <v>7.217529784672174</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7.965761601910871</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.07417512066109112</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.464742238384119</v>
+      </c>
+      <c r="S7" t="n">
         <v>10</v>
       </c>
-      <c r="N7" t="n">
-        <v>0.03964997582111361</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.5769661341352295</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.543323213766045</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.953212486770814</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.1</v>
-      </c>
       <c r="T7" t="n">
-        <v>0.05632077558139977</v>
+        <v>0.09681447443133377</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5290672588751594</v>
+        <v>1.18654160396019</v>
       </c>
     </row>
     <row r="8">
@@ -935,64 +935,64 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.135447386800805</v>
+        <v>0.1507806917815555</v>
       </c>
       <c r="C8" t="n">
-        <v>6.356356356356356</v>
+        <v>7.097097097097097</v>
       </c>
       <c r="D8" t="n">
-        <v>1.705991908908366</v>
+        <v>1.495864457087914</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7607607607607607</v>
+        <v>0.9609609609609611</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004061836361199635</v>
+        <v>0.00551686163391216</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02453949337931546</v>
+        <v>0.03514930003076045</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3174025930390147</v>
+        <v>0.3757416750168757</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09349040488789792</v>
+        <v>0.100722167970487</v>
       </c>
       <c r="J8" t="n">
-        <v>10.55591590128255</v>
+        <v>8.83637088513343</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9761938208799189</v>
+        <v>0.9774198645424933</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>4.833564751323784</v>
       </c>
       <c r="M8" t="n">
+        <v>7.245053957142408</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0249584752020003</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.8380311949136964</v>
+      </c>
+      <c r="P8" t="n">
+        <v>9.88139138410139</v>
+      </c>
+      <c r="Q8" t="n">
         <v>0.1</v>
       </c>
-      <c r="N8" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.9181773319868937</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.006684553304886</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.05284529515988808</v>
-      </c>
       <c r="R8" t="n">
-        <v>1.979766422008896</v>
+        <v>0.6661007758013673</v>
       </c>
       <c r="S8" t="n">
-        <v>8.687200768096696</v>
+        <v>9.700566085428667</v>
       </c>
       <c r="T8" t="n">
-        <v>0.09704882945763416</v>
+        <v>0.05484390196579948</v>
       </c>
       <c r="U8" t="n">
-        <v>1.652812327344446</v>
+        <v>0.8564172690357525</v>
       </c>
     </row>
     <row r="9">
@@ -1000,64 +1000,64 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05569976834222223</v>
+        <v>0.1203964661062192</v>
       </c>
       <c r="C9" t="n">
-        <v>2.132132132132132</v>
+        <v>5.645645645645645</v>
       </c>
       <c r="D9" t="n">
-        <v>4.068447461509384</v>
+        <v>0.9503025286907052</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.9709709709709711</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005123493971620941</v>
+        <v>0.005998194713377868</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02821732935663632</v>
+        <v>0.03050194927960512</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3167284533613999</v>
+        <v>0.3599957626831528</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08878471047756888</v>
+        <v>0.1005656610262233</v>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>8.179708513819044</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9757478328489521</v>
+        <v>0.9768211205973468</v>
       </c>
       <c r="L9" t="n">
-        <v>4.919047740007628</v>
+        <v>4.455451801673339</v>
       </c>
       <c r="M9" t="n">
-        <v>4.754562699841307</v>
+        <v>2.752941175663811</v>
       </c>
       <c r="N9" t="n">
-        <v>0.09684313493689917</v>
+        <v>0.001454848915674101</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8600627128452348</v>
+        <v>1.518439322299197</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3268148625538985</v>
+        <v>2.592591074479068</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01484401560779936</v>
+        <v>0.09987445623279775</v>
       </c>
       <c r="R9" t="n">
-        <v>1.982035814478887</v>
+        <v>1.901307877645186</v>
       </c>
       <c r="S9" t="n">
-        <v>1.940019226500001</v>
+        <v>8.239262209322154</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09798632878356921</v>
+        <v>0.001</v>
       </c>
       <c r="U9" t="n">
-        <v>1.547714014713654</v>
+        <v>1.83885138634305</v>
       </c>
     </row>
     <row r="10">
@@ -1065,64 +1065,64 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1450161244805064</v>
+        <v>0.1278300628568929</v>
       </c>
       <c r="C10" t="n">
-        <v>6.846846846846847</v>
+        <v>5.965965965965966</v>
       </c>
       <c r="D10" t="n">
-        <v>1.676255350962275</v>
+        <v>1.264816215713105</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6506506506506506</v>
+        <v>1.071071071071071</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006116379249867011</v>
+        <v>0.007024669890165623</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02275276487474766</v>
+        <v>0.03770980121098833</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3060106834930921</v>
+        <v>0.3836568199254328</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08925747514804855</v>
+        <v>0.1029285727654294</v>
       </c>
       <c r="J10" t="n">
-        <v>12.28459053145003</v>
+        <v>8.249277302125893</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9735938360646678</v>
+        <v>0.9784890216190487</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4.633711385918373</v>
       </c>
       <c r="M10" t="n">
-        <v>4.441777630831718</v>
+        <v>7.874870480709648</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01044102934100697</v>
+        <v>0.06178511197620296</v>
       </c>
       <c r="O10" t="n">
-        <v>1.555307427193789</v>
+        <v>1.271643620259342</v>
       </c>
       <c r="P10" t="n">
-        <v>9.993246501792669</v>
+        <v>2.028247350579451</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001727131972829311</v>
+        <v>0.08410409969282294</v>
       </c>
       <c r="R10" t="n">
-        <v>0.7119585275213354</v>
+        <v>0.8342974088353036</v>
       </c>
       <c r="S10" t="n">
-        <v>2.847630677595028</v>
+        <v>9.405525932197992</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08780223056109418</v>
+        <v>0.05071206835255533</v>
       </c>
       <c r="U10" t="n">
-        <v>1.134636567432149</v>
+        <v>1.460244145183962</v>
       </c>
     </row>
     <row r="11">
@@ -1130,64 +1130,64 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09957674744257193</v>
+        <v>0.1477567499880378</v>
       </c>
       <c r="C11" t="n">
-        <v>4.714714714714715</v>
+        <v>6.966966966966967</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4432615175117949</v>
+        <v>1.913424257112806</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7707707707707707</v>
+        <v>0.6006006006006006</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006006689742310862</v>
+        <v>0.006131212388028169</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01784004871858067</v>
+        <v>0.02074559539992802</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2859259880628363</v>
+        <v>0.2977392374715539</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08703663402359658</v>
+        <v>0.08687529923680816</v>
       </c>
       <c r="J11" t="n">
-        <v>13.3742111595794</v>
+        <v>13.2116631329182</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9815312992973553</v>
+        <v>0.9740819565241148</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>4.96646353142713</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3317189154549562</v>
+        <v>5.869989839538715</v>
       </c>
       <c r="N11" t="n">
-        <v>0.09064270978827464</v>
+        <v>0.0198997197893167</v>
       </c>
       <c r="O11" t="n">
-        <v>1.413730336928955</v>
+        <v>1.350738118638535</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1</v>
+        <v>1.876843092574656</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1</v>
+        <v>0.001756789075408215</v>
       </c>
       <c r="R11" t="n">
-        <v>0.8515176922682866</v>
+        <v>0.1034827279157066</v>
       </c>
       <c r="S11" t="n">
-        <v>5.334956310809733</v>
+        <v>4.101254182275647</v>
       </c>
       <c r="T11" t="n">
-        <v>0.09839677815298351</v>
+        <v>0.03194522989083651</v>
       </c>
       <c r="U11" t="n">
-        <v>1.706371173347036</v>
+        <v>1.30561051055459</v>
       </c>
     </row>
     <row r="12">
@@ -1195,64 +1195,64 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1215827129165375</v>
+        <v>0.03143363321481968</v>
       </c>
       <c r="C12" t="n">
-        <v>5.695695695695695</v>
+        <v>1.281281281281281</v>
       </c>
       <c r="D12" t="n">
-        <v>1.899348351995678</v>
+        <v>0.7075102635657693</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5405405405405406</v>
+        <v>0.7507507507507507</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004532500339679901</v>
+        <v>0.006714705675021002</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01494392003040994</v>
+        <v>0.02008600738731308</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2520292518966499</v>
+        <v>0.2848314011825754</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08369585191131726</v>
+        <v>0.09175123641404563</v>
       </c>
       <c r="J12" t="n">
-        <v>14.60518325470342</v>
+        <v>11.2219848474689</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9748163674657297</v>
+        <v>0.9752765847822119</v>
       </c>
       <c r="L12" t="n">
-        <v>4.944804945901144</v>
+        <v>4.959085599958002</v>
       </c>
       <c r="M12" t="n">
-        <v>2.012930018724917</v>
+        <v>9.375052320893788</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0695511240591168</v>
+        <v>0.03157894955740727</v>
       </c>
       <c r="O12" t="n">
-        <v>1.759482184991002</v>
+        <v>0.6461088442133213</v>
       </c>
       <c r="P12" t="n">
-        <v>5.424095004710376</v>
+        <v>2.786906514471379</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.04160085134929072</v>
+        <v>0.0882426184201883</v>
       </c>
       <c r="R12" t="n">
-        <v>0.8511793903419543</v>
+        <v>1.874195342507647</v>
       </c>
       <c r="S12" t="n">
-        <v>5.705546553306972</v>
+        <v>4.535176734912056</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1</v>
+        <v>0.05839031589915132</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1.539443712387817</v>
       </c>
     </row>
     <row r="13">
@@ -1260,64 +1260,64 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1491430652003364</v>
+        <v>0.1448228013322897</v>
       </c>
       <c r="C13" t="n">
-        <v>7.067067067067067</v>
+        <v>6.856856856856857</v>
       </c>
       <c r="D13" t="n">
-        <v>1.649335724054724</v>
+        <v>1.189584388641651</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6306306306306306</v>
+        <v>0.880880880880881</v>
       </c>
       <c r="F13" t="n">
-        <v>0.006604093452943932</v>
+        <v>0.006157115657660712</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01980683044641489</v>
+        <v>0.02883750421822258</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2922807618804743</v>
+        <v>0.3422313595039979</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08830169992336519</v>
+        <v>0.09743980705779354</v>
       </c>
       <c r="J13" t="n">
-        <v>12.59152204009969</v>
+        <v>9.645837748542158</v>
       </c>
       <c r="K13" t="n">
-        <v>0.97523305716469</v>
+        <v>0.975726241475383</v>
       </c>
       <c r="L13" t="n">
-        <v>4.898791603946925</v>
+        <v>4.986074582914321</v>
       </c>
       <c r="M13" t="n">
-        <v>8.453150788910495</v>
+        <v>9.565258466473203</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04457481040724631</v>
+        <v>0.01206831520318213</v>
       </c>
       <c r="O13" t="n">
-        <v>1.290141552866251</v>
+        <v>1.031924295670186</v>
       </c>
       <c r="P13" t="n">
-        <v>7.944206114029601</v>
+        <v>9.648082665781157</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02531604136303476</v>
+        <v>0.05203221468199469</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1667441982165085</v>
+        <v>0.6815976168523674</v>
       </c>
       <c r="S13" t="n">
-        <v>9.441551769713152</v>
+        <v>5.070186991114895</v>
       </c>
       <c r="T13" t="n">
-        <v>0.02384264290265501</v>
+        <v>0.001</v>
       </c>
       <c r="U13" t="n">
-        <v>0.9435427119187496</v>
+        <v>0.3027806731789818</v>
       </c>
     </row>
     <row r="14">
@@ -1325,64 +1325,64 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1492698721581227</v>
+        <v>0.1436557792167851</v>
       </c>
       <c r="C14" t="n">
-        <v>7.047047047047047</v>
+        <v>6.806806806806807</v>
       </c>
       <c r="D14" t="n">
-        <v>1.602659832857278</v>
+        <v>1.398550148266686</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8108108108108107</v>
+        <v>0.6806806806806807</v>
       </c>
       <c r="F14" t="n">
-        <v>0.006478135761131431</v>
+        <v>0.007261210369095534</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02709998933958959</v>
+        <v>0.02222381546585259</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3307341076953069</v>
+        <v>0.3059466594213652</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09609636281402839</v>
+        <v>0.09071640636251256</v>
       </c>
       <c r="J14" t="n">
-        <v>9.564334029871212</v>
+        <v>11.63804162893435</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9760039457629904</v>
+        <v>0.9735082697885974</v>
       </c>
       <c r="L14" t="n">
-        <v>4.758560811282323</v>
+        <v>4.992291502933186</v>
       </c>
       <c r="M14" t="n">
-        <v>2.799152363040009</v>
+        <v>0.1052004384085368</v>
       </c>
       <c r="N14" t="n">
-        <v>0.02679968946304045</v>
+        <v>0.001</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>0.9125399926830249</v>
       </c>
       <c r="P14" t="n">
-        <v>9.680323253361241</v>
+        <v>8.656363813331817</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0190154164294826</v>
+        <v>0.03073715106438083</v>
       </c>
       <c r="R14" t="n">
-        <v>0.811209530637157</v>
+        <v>0.4663705249852615</v>
       </c>
       <c r="S14" t="n">
-        <v>4.140793684677079</v>
+        <v>4.264391620418765</v>
       </c>
       <c r="T14" t="n">
-        <v>0.09536542133502722</v>
+        <v>0.06473035018209002</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1804246618129866</v>
+        <v>0.7839354614488061</v>
       </c>
     </row>
     <row r="15">
@@ -1390,64 +1390,64 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1440320133780589</v>
+        <v>0.1266236540508042</v>
       </c>
       <c r="C15" t="n">
-        <v>6.766766766766767</v>
+        <v>5.755755755755755</v>
       </c>
       <c r="D15" t="n">
-        <v>2.139014974752174</v>
+        <v>3.34787737528921</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6106106106106106</v>
+        <v>0.5705705705705706</v>
       </c>
       <c r="F15" t="n">
-        <v>0.006274275845116746</v>
+        <v>0.00595771009654869</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01935331189855906</v>
+        <v>0.02281753524605488</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2868352147885214</v>
+        <v>0.3117252649089532</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08667834570641997</v>
+        <v>0.08720887302915127</v>
       </c>
       <c r="J15" t="n">
-        <v>13.51266547449143</v>
+        <v>13.65466879693611</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9728495635258292</v>
+        <v>0.9733113096114479</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4.989123410762966</v>
       </c>
       <c r="M15" t="n">
-        <v>6.774783411734266</v>
+        <v>10</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02993741903441079</v>
+        <v>0.003232679649811514</v>
       </c>
       <c r="O15" t="n">
-        <v>1.13161918309416</v>
+        <v>1.999438719476073</v>
       </c>
       <c r="P15" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.06691393027174204</v>
+        <v>0.01151281153133121</v>
       </c>
       <c r="R15" t="n">
-        <v>0.592869626125971</v>
+        <v>1.976878400058646</v>
       </c>
       <c r="S15" t="n">
-        <v>6.526026702430997</v>
+        <v>0.8782101065342272</v>
       </c>
       <c r="T15" t="n">
-        <v>0.03687950588654446</v>
+        <v>0.001</v>
       </c>
       <c r="U15" t="n">
-        <v>1.909723596870524</v>
+        <v>1.776015500533966</v>
       </c>
     </row>
     <row r="16">
@@ -1455,64 +1455,64 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1477951697231928</v>
+        <v>0.1040849234420939</v>
       </c>
       <c r="C16" t="n">
-        <v>6.886886886886887</v>
+        <v>4.814814814814815</v>
       </c>
       <c r="D16" t="n">
-        <v>2.84432803354695</v>
+        <v>1.758099060062657</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5405405405405406</v>
+        <v>0.6106106106106106</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005103264528098594</v>
+        <v>0.006154625229982455</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01769815386719697</v>
+        <v>0.01765019287080215</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2841724663438653</v>
+        <v>0.2777685245631676</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08467630523165062</v>
+        <v>0.08630552035267769</v>
       </c>
       <c r="J16" t="n">
-        <v>14.40780544951279</v>
+        <v>13.82960577660276</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9738632884908817</v>
+        <v>0.9742404386264589</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2314650679608539</v>
+        <v>3.564091836634767</v>
       </c>
       <c r="N16" t="n">
-        <v>0.001505686435587104</v>
+        <v>0.04948600373934201</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1768463800266078</v>
+        <v>0.6206211424888884</v>
       </c>
       <c r="P16" t="n">
-        <v>5.599419687528331</v>
+        <v>9.511605438841363</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.001</v>
+        <v>0.07045331478598189</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1093880525619122</v>
+        <v>1.166693574815347</v>
       </c>
       <c r="S16" t="n">
-        <v>3.521254399902152</v>
+        <v>10</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1</v>
+        <v>0.03039768147862302</v>
       </c>
       <c r="U16" t="n">
-        <v>0.4380197194806427</v>
+        <v>1.491993514154501</v>
       </c>
     </row>
     <row r="17">
@@ -1520,64 +1520,64 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1431260919511302</v>
+        <v>0.0400286322668446</v>
       </c>
       <c r="C17" t="n">
-        <v>6.706706706706707</v>
+        <v>1.681681681681682</v>
       </c>
       <c r="D17" t="n">
-        <v>2.09664227676436</v>
+        <v>0.5009389194788882</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6906906906906907</v>
+        <v>1.041041041041041</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003570962484963246</v>
+        <v>0.004805359164706935</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02338158495249635</v>
+        <v>0.03057430618140958</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3105589169168212</v>
+        <v>0.3473116638109821</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0904700334322832</v>
+        <v>0.101809294322004</v>
       </c>
       <c r="J17" t="n">
-        <v>11.69335574030658</v>
+        <v>8.508117171802667</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9778629966438079</v>
+        <v>0.9771027385389829</v>
       </c>
       <c r="L17" t="n">
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.412507939229985</v>
+        <v>1.159251040857146</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0662656944180961</v>
+        <v>0.006375681460312933</v>
       </c>
       <c r="O17" t="n">
-        <v>1.977251383570267</v>
+        <v>1.625151626174944</v>
       </c>
       <c r="P17" t="n">
-        <v>5.255107823370598</v>
+        <v>3.772231521204188</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.04281698268371187</v>
+        <v>0.07133092302647587</v>
       </c>
       <c r="R17" t="n">
-        <v>1.713927049214562</v>
+        <v>0.835304926217548</v>
       </c>
       <c r="S17" t="n">
-        <v>7.321721770556</v>
+        <v>8.223191217644541</v>
       </c>
       <c r="T17" t="n">
-        <v>0.05903782939781798</v>
+        <v>0.001</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1585,64 +1585,64 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1294225812651359</v>
+        <v>0.1456042823260079</v>
       </c>
       <c r="C18" t="n">
-        <v>6.196196196196196</v>
+        <v>6.846846846846847</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5934472435572768</v>
+        <v>1.577756040075351</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6606606606606606</v>
+        <v>0.850850850850851</v>
       </c>
       <c r="F18" t="n">
-        <v>0.006120621993796673</v>
+        <v>0.005889470706746283</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01825867690792423</v>
+        <v>0.03036317009302797</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2801473861766589</v>
+        <v>0.3553102858908058</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08796188548274611</v>
+        <v>0.0975903772076665</v>
       </c>
       <c r="J18" t="n">
-        <v>12.7081603214584</v>
+        <v>9.350265776083157</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9747601209862884</v>
+        <v>0.9757519357912314</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>4.99990411910386</v>
       </c>
       <c r="M18" t="n">
-        <v>2.803013002519746</v>
+        <v>0.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.03219562764170394</v>
+        <v>0.002831136732289448</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8212535439379195</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>1.73669873722501</v>
+        <v>3.335826886216811</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.05228058210555844</v>
+        <v>0.001</v>
       </c>
       <c r="R18" t="n">
-        <v>0.843572892461782</v>
+        <v>1.999999709732454</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1200565814378195</v>
+        <v>8.063445314512036</v>
       </c>
       <c r="T18" t="n">
-        <v>0.00311172777084765</v>
+        <v>0.0997942593388061</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3630853171902529</v>
+        <v>0.7837625270143188</v>
       </c>
     </row>
     <row r="19">
@@ -1650,64 +1650,64 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1258038756092622</v>
+        <v>0.1235843379563043</v>
       </c>
       <c r="C19" t="n">
-        <v>5.895895895895896</v>
+        <v>5.705705705705705</v>
       </c>
       <c r="D19" t="n">
-        <v>1.61127807340482</v>
+        <v>2.622853525313196</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6906906906906907</v>
+        <v>0.5305305305305306</v>
       </c>
       <c r="F19" t="n">
-        <v>0.006451121094812331</v>
+        <v>0.005081892217666532</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02364269365642135</v>
+        <v>0.01747540925392129</v>
       </c>
       <c r="H19" t="n">
-        <v>0.301436358839742</v>
+        <v>0.2746442890693476</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09041560165754113</v>
+        <v>0.08389549831024093</v>
       </c>
       <c r="J19" t="n">
-        <v>11.75529713204888</v>
+        <v>14.93474424843889</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9739324213933094</v>
+        <v>0.9739757166276729</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4.999919313513356</v>
       </c>
       <c r="M19" t="n">
-        <v>4.772350634155012</v>
+        <v>0.2116006107053261</v>
       </c>
       <c r="N19" t="n">
-        <v>0.04434012737364768</v>
+        <v>0.06419969435253271</v>
       </c>
       <c r="O19" t="n">
-        <v>1.58605675840561</v>
+        <v>1.999986737528497</v>
       </c>
       <c r="P19" t="n">
-        <v>0.2189279992739686</v>
+        <v>4.885564455375929</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.03603347357544093</v>
+        <v>0.001</v>
       </c>
       <c r="R19" t="n">
-        <v>1.941553746280495</v>
+        <v>0.1184971119010551</v>
       </c>
       <c r="S19" t="n">
-        <v>9.365207629925969</v>
+        <v>10</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1</v>
+        <v>0.06594659690395734</v>
       </c>
       <c r="U19" t="n">
-        <v>0.6399135658390712</v>
+        <v>0.8707156644568177</v>
       </c>
     </row>
     <row r="20">
@@ -1715,64 +1715,64 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1466109222986881</v>
+        <v>0.1405179595644917</v>
       </c>
       <c r="C20" t="n">
-        <v>6.956956956956957</v>
+        <v>6.426426426426427</v>
       </c>
       <c r="D20" t="n">
-        <v>1.323588458456082</v>
+        <v>3.169581440327551</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7107107107107107</v>
+        <v>0.5305305305305306</v>
       </c>
       <c r="F20" t="n">
-        <v>0.005754835127961002</v>
+        <v>0.003710634728332341</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02476817365638674</v>
+        <v>0.03525214284041157</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3117331467132332</v>
+        <v>0.3625836865510398</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09145267327612037</v>
+        <v>0.08852583774158912</v>
       </c>
       <c r="J20" t="n">
-        <v>11.47517597065242</v>
+        <v>15</v>
       </c>
       <c r="K20" t="n">
-        <v>0.975349050631542</v>
+        <v>0.9758696466998399</v>
       </c>
       <c r="L20" t="n">
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>10</v>
+        <v>8.870847258234862</v>
       </c>
       <c r="N20" t="n">
-        <v>0.02574407530767165</v>
+        <v>0.01673280970973472</v>
       </c>
       <c r="O20" t="n">
-        <v>1.936824556924503</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.08514646100283889</v>
+        <v>0.07516844969050028</v>
       </c>
       <c r="R20" t="n">
         <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>3.473141953241333</v>
+        <v>0.1</v>
       </c>
       <c r="T20" t="n">
-        <v>0.06021780174361857</v>
+        <v>0.09683273337924518</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4881416751242624</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
@@ -1780,64 +1780,64 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1036442182341867</v>
+        <v>0.1238104785217195</v>
       </c>
       <c r="C21" t="n">
-        <v>4.884884884884885</v>
+        <v>5.655655655655655</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8471118382743281</v>
+        <v>3.152219045516302</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7307307307307307</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005096005707012515</v>
+        <v>0.005968617142371008</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01855590851754092</v>
+        <v>0.01905959980420164</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2760640939223423</v>
+        <v>0.2852379812499041</v>
       </c>
       <c r="I21" t="n">
-        <v>0.089887833293848</v>
+        <v>0.08484401279527456</v>
       </c>
       <c r="J21" t="n">
-        <v>11.95929161894763</v>
+        <v>14.62123143118449</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9764271182536117</v>
+        <v>0.97195446343217</v>
       </c>
       <c r="L21" t="n">
         <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>6.862637165183458</v>
+        <v>8.498163552687272</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0465021287234555</v>
+        <v>0.02896582640995062</v>
       </c>
       <c r="O21" t="n">
-        <v>1.119151249363343</v>
+        <v>0.9277942271366767</v>
       </c>
       <c r="P21" t="n">
-        <v>2.394846672711116</v>
+        <v>10</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.06647920448563821</v>
+        <v>0.02750957984678625</v>
       </c>
       <c r="R21" t="n">
-        <v>0.933835942864315</v>
+        <v>1.39352714681871</v>
       </c>
       <c r="S21" t="n">
-        <v>5.42649591480725</v>
+        <v>9.141106386700491</v>
       </c>
       <c r="T21" t="n">
+        <v>0.06994296676208238</v>
+      </c>
+      <c r="U21" t="n">
         <v>0.1</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.775396197920798</v>
       </c>
     </row>
   </sheetData>
